--- a/test_case/Authentication/Registation/Tc_Reg_Security(nadira).xlsx
+++ b/test_case/Authentication/Registation/Tc_Reg_Security(nadira).xlsx
@@ -173,20 +173,20 @@
     <t>TC_SEC_098</t>
   </si>
   <si>
-    <t>TC_SEC_099</t>
+    <t>TC_SEC_089</t>
   </si>
   <si>
-    <t>TC_SEC_100</t>
+    <t>TC_SEC_090</t>
   </si>
   <si>
-    <t>TC_SEC_101</t>
+    <t>TC_SEC_091</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -198,26 +198,38 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -336,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -383,6 +395,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1232,8 +1247,8 @@
   <dimension ref="A1:AA990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1355,11 +1370,11 @@
       <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>40</v>
+      <c r="A4" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="B4" s="9">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>8</v>
@@ -1396,11 +1411,11 @@
       <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>41</v>
+      <c r="A5" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="B5" s="9">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>8</v>
@@ -1437,11 +1452,11 @@
       <c r="AA5" s="3"/>
     </row>
     <row r="6" spans="1:27" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>42</v>
+      <c r="A6" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="B6" s="9">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>8</v>
@@ -1478,11 +1493,11 @@
       <c r="AA6" s="3"/>
     </row>
     <row r="7" spans="1:27" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>43</v>
+      <c r="A7" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="B7" s="9">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>8</v>
@@ -1519,11 +1534,11 @@
       <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>44</v>
+      <c r="A8" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="B8" s="9">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>8</v>
@@ -1560,11 +1575,11 @@
       <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:27" ht="46.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>45</v>
+      <c r="A9" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="B9" s="9">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>8</v>
@@ -1601,11 +1616,11 @@
       <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:27" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>46</v>
+      <c r="A10" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="B10" s="9">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>8</v>
@@ -1642,11 +1657,11 @@
       <c r="AA10" s="4"/>
     </row>
     <row r="11" spans="1:27" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>47</v>
+      <c r="A11" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="B11" s="9">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>8</v>
@@ -1683,11 +1698,11 @@
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="1:27" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>48</v>
+      <c r="A12" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="B12" s="9">
-        <v>1001</v>
+        <v>197</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>8</v>
@@ -1724,11 +1739,11 @@
       <c r="AA12" s="1"/>
     </row>
     <row r="13" spans="1:27" ht="55.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>49</v>
+      <c r="A13" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="B13" s="9">
-        <v>1002</v>
+        <v>198</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>8</v>

--- a/test_case/Authentication/Registation/Tc_Reg_Security(nadira).xlsx
+++ b/test_case/Authentication/Registation/Tc_Reg_Security(nadira).xlsx
@@ -173,20 +173,20 @@
     <t>TC_SEC_098</t>
   </si>
   <si>
-    <t>TC_SEC_089</t>
+    <t>TC_SEC_099</t>
   </si>
   <si>
-    <t>TC_SEC_090</t>
+    <t>TC_SEC_100</t>
   </si>
   <si>
-    <t>TC_SEC_091</t>
+    <t>TC_SEC_101</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -198,38 +198,26 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -348,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -395,9 +383,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1247,8 +1232,8 @@
   <dimension ref="A1:AA990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1370,11 +1355,11 @@
       <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>47</v>
+      <c r="A4" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="B4" s="9">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>8</v>
@@ -1411,11 +1396,11 @@
       <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>48</v>
+      <c r="A5" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B5" s="9">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>8</v>
@@ -1452,11 +1437,11 @@
       <c r="AA5" s="3"/>
     </row>
     <row r="6" spans="1:27" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>49</v>
+      <c r="A6" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="B6" s="9">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>8</v>
@@ -1493,11 +1478,11 @@
       <c r="AA6" s="3"/>
     </row>
     <row r="7" spans="1:27" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>40</v>
+      <c r="A7" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="B7" s="9">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>8</v>
@@ -1534,11 +1519,11 @@
       <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>41</v>
+      <c r="A8" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="B8" s="9">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>8</v>
@@ -1575,11 +1560,11 @@
       <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:27" ht="46.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>42</v>
+      <c r="A9" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="B9" s="9">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>8</v>
@@ -1616,11 +1601,11 @@
       <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:27" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>43</v>
+      <c r="A10" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="B10" s="9">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>8</v>
@@ -1657,11 +1642,11 @@
       <c r="AA10" s="4"/>
     </row>
     <row r="11" spans="1:27" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
-        <v>44</v>
+      <c r="A11" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="B11" s="9">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>8</v>
@@ -1698,11 +1683,11 @@
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="1:27" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>45</v>
+      <c r="A12" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B12" s="9">
-        <v>197</v>
+        <v>1001</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>8</v>
@@ -1739,11 +1724,11 @@
       <c r="AA12" s="1"/>
     </row>
     <row r="13" spans="1:27" ht="55.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
-        <v>46</v>
+      <c r="A13" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="B13" s="9">
-        <v>198</v>
+        <v>1002</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>8</v>

--- a/test_case/Authentication/Registation/Tc_Reg_Security(nadira).xlsx
+++ b/test_case/Authentication/Registation/Tc_Reg_Security(nadira).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ai-quizwhiz.zluck.com-pnt-b24\test_case\Authentication\Registation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\my github project\ai-quizwhiz.zluck.com-pnt-b24\test_case\Authentication\Registation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1232,8 +1232,8 @@
   <dimension ref="A1:AA990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1764,15 +1764,27 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+    <row r="14" spans="1:27" ht="55.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1002</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -30062,7 +30074,7 @@
     <mergeCell ref="A1:H2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G13">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G14">
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>
